--- a/fql_map.xlsx
+++ b/fql_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="172">
   <si>
     <t>fql</t>
   </si>
@@ -34,9 +34,6 @@
     <t>total assets</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
     <t>company fundamental</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>market value</t>
   </si>
   <si>
-    <t>quarterly</t>
-  </si>
-  <si>
     <t>FG_OPER_INC_A</t>
   </si>
   <si>
@@ -518,6 +512,24 @@
   </si>
   <si>
     <t>FF.ExtractFormulaHistory('&lt;ID&gt;', 'FF_LIABS_CURR', '&lt;d1&gt;:&lt;d2&gt;:&lt;freq&gt;','curr=&lt;curr&gt;')</t>
+  </si>
+  <si>
+    <t>FF_BPS</t>
+  </si>
+  <si>
+    <t>book per share</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>FF.ExtractFormulaHistory('&lt;ID&gt;', 'FF_BPS(MON,&lt;d1&gt;,&lt;d2&gt;,&lt;freq&gt;,,&lt;curr&gt;)')</t>
   </si>
 </sst>
 </file>
@@ -1340,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1365,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1374,13 +1386,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1388,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1397,887 +1409,910 @@
         <v>1000000</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>1000000</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>1000000</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>1000000</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>1000000</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01</v>
+        <v>1000000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>1000000</v>
+        <v>0.01</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
+        <v>1000000</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
         <v>1000000</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>1000000</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>1000000</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1">
         <v>1000000</v>
       </c>
+      <c r="E20" t="s">
+        <v>168</v>
+      </c>
       <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1">
         <v>1000000</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1">
         <v>1000000</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1">
         <v>1000000</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
+      <c r="E35" t="s">
+        <v>168</v>
+      </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
